--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.816113666666666</v>
+        <v>2.198057</v>
       </c>
       <c r="H2">
-        <v>14.448341</v>
+        <v>6.594170999999999</v>
       </c>
       <c r="I2">
-        <v>0.06966795763517612</v>
+        <v>0.0384924836005783</v>
       </c>
       <c r="J2">
-        <v>0.08453131766938522</v>
+        <v>0.04567487880938195</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N2">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O2">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P2">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q2">
-        <v>25.92901844453955</v>
+        <v>8.331373844466334</v>
       </c>
       <c r="R2">
-        <v>233.3611660008559</v>
+        <v>74.982364600197</v>
       </c>
       <c r="S2">
-        <v>0.002576663533661234</v>
+        <v>0.0008689359095191274</v>
       </c>
       <c r="T2">
-        <v>0.003231058224082873</v>
+        <v>0.001043276562809203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.816113666666666</v>
+        <v>2.198057</v>
       </c>
       <c r="H3">
-        <v>14.448341</v>
+        <v>6.594170999999999</v>
       </c>
       <c r="I3">
-        <v>0.06966795763517612</v>
+        <v>0.0384924836005783</v>
       </c>
       <c r="J3">
-        <v>0.08453131766938522</v>
+        <v>0.04567487880938195</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>106.106731</v>
       </c>
       <c r="O3">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P3">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q3">
-        <v>170.3406924314745</v>
+        <v>77.74288094055566</v>
       </c>
       <c r="R3">
-        <v>1533.066231883271</v>
+        <v>699.6859284650009</v>
       </c>
       <c r="S3">
-        <v>0.01692739165678737</v>
+        <v>0.008108336298411071</v>
       </c>
       <c r="T3">
-        <v>0.02122643772088461</v>
+        <v>0.009735168187707626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.816113666666666</v>
+        <v>2.198057</v>
       </c>
       <c r="H4">
-        <v>14.448341</v>
+        <v>6.594170999999999</v>
       </c>
       <c r="I4">
-        <v>0.06966795763517612</v>
+        <v>0.0384924836005783</v>
       </c>
       <c r="J4">
-        <v>0.08453131766938522</v>
+        <v>0.04567487880938195</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N4">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O4">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P4">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q4">
-        <v>193.8576759327921</v>
+        <v>108.686933224854</v>
       </c>
       <c r="R4">
-        <v>1744.719083395129</v>
+        <v>978.1823990236859</v>
       </c>
       <c r="S4">
-        <v>0.01926436225747429</v>
+        <v>0.01133570296300065</v>
       </c>
       <c r="T4">
-        <v>0.02415692824871079</v>
+        <v>0.01361006386628691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.816113666666666</v>
+        <v>2.198057</v>
       </c>
       <c r="H5">
-        <v>14.448341</v>
+        <v>6.594170999999999</v>
       </c>
       <c r="I5">
-        <v>0.06966795763517612</v>
+        <v>0.0384924836005783</v>
       </c>
       <c r="J5">
-        <v>0.08453131766938522</v>
+        <v>0.04567487880938195</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N5">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O5">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P5">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q5">
-        <v>68.13638950911249</v>
+        <v>12.951798095945</v>
       </c>
       <c r="R5">
-        <v>408.818337054675</v>
+        <v>77.71078857566999</v>
       </c>
       <c r="S5">
-        <v>0.006770967845890076</v>
+        <v>0.001350831527729742</v>
       </c>
       <c r="T5">
-        <v>0.005660392741145057</v>
+        <v>0.00108123883303361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.816113666666666</v>
+        <v>2.198057</v>
       </c>
       <c r="H6">
-        <v>14.448341</v>
+        <v>6.594170999999999</v>
       </c>
       <c r="I6">
-        <v>0.06966795763517612</v>
+        <v>0.0384924836005783</v>
       </c>
       <c r="J6">
-        <v>0.08453131766938522</v>
+        <v>0.04567487880938195</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N6">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O6">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P6">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q6">
-        <v>242.8063226364062</v>
+        <v>161.3536706696843</v>
       </c>
       <c r="R6">
-        <v>2185.256903727656</v>
+        <v>1452.183036027159</v>
       </c>
       <c r="S6">
-        <v>0.02412857234136315</v>
+        <v>0.0168286769019177</v>
       </c>
       <c r="T6">
-        <v>0.0302565007345619</v>
+        <v>0.02020513135954461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.40380633333333</v>
+        <v>27.40380633333334</v>
       </c>
       <c r="H7">
-        <v>82.21141899999999</v>
+        <v>82.21141900000001</v>
       </c>
       <c r="I7">
-        <v>0.3964124085955414</v>
+        <v>0.4798968206371615</v>
       </c>
       <c r="J7">
-        <v>0.4809852962038986</v>
+        <v>0.5694417993667925</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N7">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O7">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P7">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q7">
-        <v>147.5367586910338</v>
+        <v>103.8696245476592</v>
       </c>
       <c r="R7">
-        <v>1327.830828219304</v>
+        <v>934.8266209289332</v>
       </c>
       <c r="S7">
-        <v>0.01466127947754308</v>
+        <v>0.01083327292264988</v>
       </c>
       <c r="T7">
-        <v>0.0183848015127462</v>
+        <v>0.01300682779351449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.40380633333333</v>
+        <v>27.40380633333334</v>
       </c>
       <c r="H8">
-        <v>82.21141899999999</v>
+        <v>82.21141900000001</v>
       </c>
       <c r="I8">
-        <v>0.3964124085955414</v>
+        <v>0.4798968206371615</v>
       </c>
       <c r="J8">
-        <v>0.4809852962038986</v>
+        <v>0.5694417993667925</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>106.106731</v>
       </c>
       <c r="O8">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P8">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q8">
-        <v>969.2427689956987</v>
+        <v>969.2427689956988</v>
       </c>
       <c r="R8">
-        <v>8723.184920961288</v>
+        <v>8723.18492096129</v>
       </c>
       <c r="S8">
-        <v>0.09631727878468888</v>
+        <v>0.1010889515636737</v>
       </c>
       <c r="T8">
-        <v>0.1207789576221277</v>
+        <v>0.1213711307934087</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.40380633333333</v>
+        <v>27.40380633333334</v>
       </c>
       <c r="H9">
-        <v>82.21141899999999</v>
+        <v>82.21141900000001</v>
       </c>
       <c r="I9">
-        <v>0.3964124085955414</v>
+        <v>0.4798968206371615</v>
       </c>
       <c r="J9">
-        <v>0.4809852962038986</v>
+        <v>0.5694417993667925</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N9">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O9">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P9">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q9">
-        <v>1103.054988976035</v>
+        <v>1355.031133886806</v>
       </c>
       <c r="R9">
-        <v>9927.494900784312</v>
+        <v>12195.28020498125</v>
       </c>
       <c r="S9">
-        <v>0.1096146995227345</v>
+        <v>0.1413254563690854</v>
       </c>
       <c r="T9">
-        <v>0.1374535214809575</v>
+        <v>0.1696805653247501</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.40380633333333</v>
+        <v>27.40380633333334</v>
       </c>
       <c r="H10">
-        <v>82.21141899999999</v>
+        <v>82.21141900000001</v>
       </c>
       <c r="I10">
-        <v>0.3964124085955414</v>
+        <v>0.4798968206371615</v>
       </c>
       <c r="J10">
-        <v>0.4809852962038986</v>
+        <v>0.5694417993667925</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N10">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O10">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P10">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q10">
-        <v>387.6977479338875</v>
+        <v>161.4737773814383</v>
       </c>
       <c r="R10">
-        <v>2326.186487603325</v>
+        <v>968.8426642886301</v>
       </c>
       <c r="S10">
-        <v>0.03852697514641968</v>
+        <v>0.01684120365161897</v>
       </c>
       <c r="T10">
-        <v>0.03220777522809262</v>
+        <v>0.01348011429209179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.40380633333333</v>
+        <v>27.40380633333334</v>
       </c>
       <c r="H11">
-        <v>82.21141899999999</v>
+        <v>82.21141900000001</v>
       </c>
       <c r="I11">
-        <v>0.3964124085955414</v>
+        <v>0.4798968206371615</v>
       </c>
       <c r="J11">
-        <v>0.4809852962038986</v>
+        <v>0.5694417993667925</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N11">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O11">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P11">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q11">
-        <v>1381.574003971167</v>
+        <v>2011.642437936995</v>
       </c>
       <c r="R11">
-        <v>12434.1660357405</v>
+        <v>18104.78194143295</v>
       </c>
       <c r="S11">
-        <v>0.1372921756641553</v>
+        <v>0.2098079361301335</v>
       </c>
       <c r="T11">
-        <v>0.1721602403599746</v>
+        <v>0.2519031611630274</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3563830000000001</v>
+        <v>0.4905086666666666</v>
       </c>
       <c r="H12">
-        <v>1.069149</v>
+        <v>1.471526</v>
       </c>
       <c r="I12">
-        <v>0.005155292724451266</v>
+        <v>0.008589812187585762</v>
       </c>
       <c r="J12">
-        <v>0.006255152321979774</v>
+        <v>0.0101926036972433</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N12">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O12">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P12">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q12">
-        <v>1.918696696109333</v>
+        <v>1.859192494075778</v>
       </c>
       <c r="R12">
-        <v>17.268270264984</v>
+        <v>16.732732446682</v>
       </c>
       <c r="S12">
-        <v>0.0001906680663441135</v>
+        <v>0.0001939078897394447</v>
       </c>
       <c r="T12">
-        <v>0.0002390919946601468</v>
+        <v>0.0002328129779110028</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3563830000000001</v>
+        <v>0.4905086666666666</v>
       </c>
       <c r="H13">
-        <v>1.069149</v>
+        <v>1.471526</v>
       </c>
       <c r="I13">
-        <v>0.005155292724451266</v>
+        <v>0.008589812187585762</v>
       </c>
       <c r="J13">
-        <v>0.006255152321979774</v>
+        <v>0.0101926036972433</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>106.106731</v>
       </c>
       <c r="O13">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P13">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q13">
-        <v>12.60487837132433</v>
+        <v>17.34875704905622</v>
       </c>
       <c r="R13">
-        <v>113.443905341919</v>
+        <v>156.138813441506</v>
       </c>
       <c r="S13">
-        <v>0.001252593904204127</v>
+        <v>0.001809420422954705</v>
       </c>
       <c r="T13">
-        <v>0.001570714912033573</v>
+        <v>0.002172457023420328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3563830000000001</v>
+        <v>0.4905086666666666</v>
       </c>
       <c r="H14">
-        <v>1.069149</v>
+        <v>1.471526</v>
       </c>
       <c r="I14">
-        <v>0.005155292724451266</v>
+        <v>0.008589812187585762</v>
       </c>
       <c r="J14">
-        <v>0.006255152321979774</v>
+        <v>0.0101926036972433</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N14">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O14">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P14">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q14">
-        <v>14.34508919507567</v>
+        <v>24.254094730124</v>
       </c>
       <c r="R14">
-        <v>129.105802755681</v>
+        <v>218.286852571116</v>
       </c>
       <c r="S14">
-        <v>0.001425525161900344</v>
+        <v>0.002529625276374013</v>
       </c>
       <c r="T14">
-        <v>0.001787565484520395</v>
+        <v>0.003037161584208493</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3563830000000001</v>
+        <v>0.4905086666666666</v>
       </c>
       <c r="H15">
-        <v>1.069149</v>
+        <v>1.471526</v>
       </c>
       <c r="I15">
-        <v>0.005155292724451266</v>
+        <v>0.008589812187585762</v>
       </c>
       <c r="J15">
-        <v>0.006255152321979774</v>
+        <v>0.0101926036972433</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N15">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O15">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P15">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q15">
-        <v>5.041959676012501</v>
+        <v>2.890265909836667</v>
       </c>
       <c r="R15">
-        <v>30.251758056075</v>
+        <v>17.34159545902</v>
       </c>
       <c r="S15">
-        <v>0.000501038389214757</v>
+        <v>0.0003014455819653503</v>
       </c>
       <c r="T15">
-        <v>0.0004188580016766284</v>
+        <v>0.0002412844700294573</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3563830000000001</v>
+        <v>0.4905086666666666</v>
       </c>
       <c r="H16">
-        <v>1.069149</v>
+        <v>1.471526</v>
       </c>
       <c r="I16">
-        <v>0.005155292724451266</v>
+        <v>0.008589812187585762</v>
       </c>
       <c r="J16">
-        <v>0.006255152321979774</v>
+        <v>0.0101926036972433</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N16">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O16">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P16">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q16">
-        <v>17.96719339890934</v>
+        <v>36.00697063905044</v>
       </c>
       <c r="R16">
-        <v>161.704740590184</v>
+        <v>324.062735751454</v>
       </c>
       <c r="S16">
-        <v>0.001785467202787924</v>
+        <v>0.003755413016552248</v>
       </c>
       <c r="T16">
-        <v>0.00223892192908903</v>
+        <v>0.004508887641674023</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.4656755</v>
+        <v>26.938671</v>
       </c>
       <c r="H17">
-        <v>72.93135100000001</v>
+        <v>53.877342</v>
       </c>
       <c r="I17">
-        <v>0.527497752691208</v>
+        <v>0.4717513475259624</v>
       </c>
       <c r="J17">
-        <v>0.4266914242568359</v>
+        <v>0.3731842966191845</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N17">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O17">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P17">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q17">
-        <v>196.3240982405027</v>
+        <v>102.106605503899</v>
       </c>
       <c r="R17">
-        <v>1177.944589443016</v>
+        <v>612.639633023394</v>
       </c>
       <c r="S17">
-        <v>0.01950945986625881</v>
+        <v>0.01064939561923169</v>
       </c>
       <c r="T17">
-        <v>0.01630951549676359</v>
+        <v>0.008524038605467757</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.4656755</v>
+        <v>26.938671</v>
       </c>
       <c r="H18">
-        <v>72.93135100000001</v>
+        <v>53.877342</v>
       </c>
       <c r="I18">
-        <v>0.527497752691208</v>
+        <v>0.4717513475259624</v>
       </c>
       <c r="J18">
-        <v>0.4266914242568359</v>
+        <v>0.3731842966191845</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>106.106731</v>
       </c>
       <c r="O18">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P18">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q18">
-        <v>1289.75120700393</v>
+        <v>952.791439098167</v>
       </c>
       <c r="R18">
-        <v>7738.507242023581</v>
+        <v>5716.748634589002</v>
       </c>
       <c r="S18">
-        <v>0.128167400925369</v>
+        <v>0.09937312995079457</v>
       </c>
       <c r="T18">
-        <v>0.1071453656791098</v>
+        <v>0.07954070130675167</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.4656755</v>
+        <v>26.938671</v>
       </c>
       <c r="H19">
-        <v>72.93135100000001</v>
+        <v>53.877342</v>
       </c>
       <c r="I19">
-        <v>0.527497752691208</v>
+        <v>0.4717513475259624</v>
       </c>
       <c r="J19">
-        <v>0.4266914242568359</v>
+        <v>0.3731842966191845</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N19">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O19">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P19">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q19">
-        <v>1467.81234684647</v>
+        <v>1332.031669853562</v>
       </c>
       <c r="R19">
-        <v>8806.87408107882</v>
+        <v>7992.190019121372</v>
       </c>
       <c r="S19">
-        <v>0.1458620023147651</v>
+        <v>0.1389266851014327</v>
       </c>
       <c r="T19">
-        <v>0.121937696043341</v>
+        <v>0.1112003412659122</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.4656755</v>
+        <v>26.938671</v>
       </c>
       <c r="H20">
-        <v>72.93135100000001</v>
+        <v>53.877342</v>
       </c>
       <c r="I20">
-        <v>0.527497752691208</v>
+        <v>0.4717513475259624</v>
       </c>
       <c r="J20">
-        <v>0.4266914242568359</v>
+        <v>0.3731842966191845</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N20">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O20">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P20">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q20">
-        <v>515.9013348828563</v>
+        <v>158.733020920335</v>
       </c>
       <c r="R20">
-        <v>2063.605339531425</v>
+        <v>634.93208368134</v>
       </c>
       <c r="S20">
-        <v>0.05126704504465147</v>
+        <v>0.01655535143171396</v>
       </c>
       <c r="T20">
-        <v>0.0285721447052158</v>
+        <v>0.008834207422135811</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.4656755</v>
+        <v>26.938671</v>
       </c>
       <c r="H21">
-        <v>72.93135100000001</v>
+        <v>53.877342</v>
       </c>
       <c r="I21">
-        <v>0.527497752691208</v>
+        <v>0.4717513475259624</v>
       </c>
       <c r="J21">
-        <v>0.4266914242568359</v>
+        <v>0.3731842966191845</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N21">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O21">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P21">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q21">
-        <v>1838.431811086303</v>
+        <v>1977.498057972553</v>
       </c>
       <c r="R21">
-        <v>11030.59086651782</v>
+        <v>11864.98834783532</v>
       </c>
       <c r="S21">
-        <v>0.1826918445401636</v>
+        <v>0.2062467854227894</v>
       </c>
       <c r="T21">
-        <v>0.1527267023324056</v>
+        <v>0.165085008018917</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.08755866666666666</v>
+        <v>0.07249499999999999</v>
       </c>
       <c r="H22">
-        <v>0.262676</v>
+        <v>0.217485</v>
       </c>
       <c r="I22">
-        <v>0.001266588353623265</v>
+        <v>0.001269536048712078</v>
       </c>
       <c r="J22">
-        <v>0.001536809547900581</v>
+        <v>0.001506421507397736</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N22">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O22">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P22">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q22">
-        <v>0.4713988165795554</v>
+        <v>0.274780384155</v>
       </c>
       <c r="R22">
-        <v>4.242589349215999</v>
+        <v>2.473023457395</v>
       </c>
       <c r="S22">
-        <v>4.684466336778722E-05</v>
+        <v>2.865872393690843E-05</v>
       </c>
       <c r="T22">
-        <v>5.874179257460719E-05</v>
+        <v>3.440872298618879E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.08755866666666666</v>
+        <v>0.07249499999999999</v>
       </c>
       <c r="H23">
-        <v>0.262676</v>
+        <v>0.217485</v>
       </c>
       <c r="I23">
-        <v>0.001266588353623265</v>
+        <v>0.001269536048712078</v>
       </c>
       <c r="J23">
-        <v>0.001536809547900581</v>
+        <v>0.001506421507397736</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>106.106731</v>
       </c>
       <c r="O23">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P23">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q23">
-        <v>3.096854630239555</v>
+        <v>2.564069154614999</v>
       </c>
       <c r="R23">
-        <v>27.871691672156</v>
+        <v>23.076622391535</v>
       </c>
       <c r="S23">
-        <v>0.0003077460264011127</v>
+        <v>0.0002674242933433075</v>
       </c>
       <c r="T23">
-        <v>0.0003859042193682364</v>
+        <v>0.0003210794887338519</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.08755866666666666</v>
+        <v>0.07249499999999999</v>
       </c>
       <c r="H24">
-        <v>0.262676</v>
+        <v>0.217485</v>
       </c>
       <c r="I24">
-        <v>0.001266588353623265</v>
+        <v>0.001269536048712078</v>
       </c>
       <c r="J24">
-        <v>0.001536809547900581</v>
+        <v>0.001506421507397736</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N24">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O24">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P24">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q24">
-        <v>3.524401790027111</v>
+        <v>3.584647360889999</v>
       </c>
       <c r="R24">
-        <v>31.719616110244</v>
+        <v>32.26182624801</v>
       </c>
       <c r="S24">
-        <v>0.0003502329866345428</v>
+        <v>0.0003738673684543814</v>
       </c>
       <c r="T24">
-        <v>0.0004391815838689268</v>
+        <v>0.0004488789781095163</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.08755866666666666</v>
+        <v>0.07249499999999999</v>
       </c>
       <c r="H25">
-        <v>0.262676</v>
+        <v>0.217485</v>
       </c>
       <c r="I25">
-        <v>0.001266588353623265</v>
+        <v>0.001269536048712078</v>
       </c>
       <c r="J25">
-        <v>0.001536809547900581</v>
+        <v>0.001506421507397736</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N25">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O25">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P25">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q25">
-        <v>1.23874389805</v>
+        <v>0.4271684505749999</v>
       </c>
       <c r="R25">
-        <v>7.4324633883</v>
+        <v>2.56301070345</v>
       </c>
       <c r="S25">
-        <v>0.0001230986138745633</v>
+        <v>4.455231670642191E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001029079617980375</v>
+        <v>3.566077185476608E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.08755866666666666</v>
+        <v>0.07249499999999999</v>
       </c>
       <c r="H26">
-        <v>0.262676</v>
+        <v>0.217485</v>
       </c>
       <c r="I26">
-        <v>0.001266588353623265</v>
+        <v>0.001269536048712078</v>
       </c>
       <c r="J26">
-        <v>0.001536809547900581</v>
+        <v>0.001506421507397736</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N26">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O26">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P26">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q26">
-        <v>4.414305670446222</v>
+        <v>5.321670163784999</v>
       </c>
       <c r="R26">
-        <v>39.72875103401599</v>
+        <v>47.89503147406499</v>
       </c>
       <c r="S26">
-        <v>0.0004386660633452593</v>
+        <v>0.0005550333462710584</v>
       </c>
       <c r="T26">
-        <v>0.0005500739902907731</v>
+        <v>0.0006663935457134124</v>
       </c>
     </row>
   </sheetData>
